--- a/Boards/Single_board/CPL/JLC_Top.xlsx
+++ b/Boards/Single_board/CPL/JLC_Top.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13440"/>
+    <workbookView windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Main_board-bottom-pos" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="136">
   <si>
     <t>Designator</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>J3</t>
+  </si>
+  <si>
+    <t>"-1.34"</t>
   </si>
   <si>
     <t>J4</t>
@@ -438,13 +441,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="#,##0.000"/>
     <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1077,7 +1081,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,6 +1101,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1634,12 +1641,13 @@
   <sheetPr/>
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
+    <col min="3" max="3" width="10.6666666666667"/>
     <col min="4" max="6" width="11.6666666666667"/>
     <col min="7" max="7" width="20.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="18.7777777777778" customWidth="1"/>
@@ -2487,10 +2495,10 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>181.4</v>
+        <v>183.4134</v>
       </c>
       <c r="C44">
-        <v>-143.2</v>
+        <v>-143.129</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
@@ -2505,11 +2513,11 @@
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B45">
-        <v>188.74</v>
+      <c r="B45" s="7">
+        <v>191.0396</v>
       </c>
       <c r="C45">
-        <v>-149.26</v>
+        <v>-149.1996</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -2517,12 +2525,15 @@
       <c r="E45">
         <v>90</v>
       </c>
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
       <c r="G45" s="4"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>171.4</v>
@@ -2534,14 +2545,14 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>165</v>
@@ -2553,14 +2564,14 @@
         <v>6</v>
       </c>
       <c r="E47">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>140.312</v>
@@ -2572,14 +2583,14 @@
         <v>6</v>
       </c>
       <c r="E48">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>140.312</v>
@@ -2591,14 +2602,14 @@
         <v>6</v>
       </c>
       <c r="E49">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>140.312</v>
@@ -2610,14 +2621,14 @@
         <v>6</v>
       </c>
       <c r="E50">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>140.312</v>
@@ -2629,14 +2640,14 @@
         <v>6</v>
       </c>
       <c r="E51">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>140.312</v>
@@ -2648,14 +2659,14 @@
         <v>6</v>
       </c>
       <c r="E52">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>140.312</v>
@@ -2667,14 +2678,14 @@
         <v>6</v>
       </c>
       <c r="E53">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>140.312</v>
@@ -2686,14 +2697,14 @@
         <v>6</v>
       </c>
       <c r="E54">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>189.588</v>
@@ -2705,14 +2716,14 @@
         <v>6</v>
       </c>
       <c r="E55">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>189.588</v>
@@ -2724,14 +2735,14 @@
         <v>6</v>
       </c>
       <c r="E56">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>189.588</v>
@@ -2743,14 +2754,14 @@
         <v>6</v>
       </c>
       <c r="E57">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>189.588</v>
@@ -2762,14 +2773,14 @@
         <v>6</v>
       </c>
       <c r="E58">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>189.588</v>
@@ -2781,14 +2792,14 @@
         <v>6</v>
       </c>
       <c r="E59">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>189.588</v>
@@ -2800,14 +2811,14 @@
         <v>6</v>
       </c>
       <c r="E60">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>189.588</v>
@@ -2819,14 +2830,14 @@
         <v>6</v>
       </c>
       <c r="E61">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>168.37</v>
@@ -2845,7 +2856,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>161.38</v>
@@ -2864,7 +2875,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>161.38</v>
@@ -2883,7 +2894,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
         <v>158.408</v>
@@ -2902,7 +2913,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
         <v>183.046</v>
@@ -2921,7 +2932,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
         <v>207.684</v>
@@ -2940,7 +2951,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
         <v>232.322</v>
@@ -2959,7 +2970,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
         <v>256.96</v>
@@ -2978,7 +2989,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>271.953</v>
@@ -2997,7 +3008,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
         <v>272.08</v>
@@ -3016,7 +3027,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
         <v>266.484</v>
@@ -3035,7 +3046,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
         <v>266.484</v>
@@ -3054,7 +3065,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
         <v>266.484</v>
@@ -3073,7 +3084,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
         <v>241.719</v>
@@ -3092,7 +3103,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
         <v>241.846</v>
@@ -3111,7 +3122,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
         <v>241.846</v>
@@ -3130,7 +3141,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>217.208</v>
@@ -3149,7 +3160,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>217.208</v>
@@ -3168,7 +3179,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
         <v>217.208</v>
@@ -3187,7 +3198,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
         <v>192.57</v>
@@ -3206,7 +3217,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>192.57</v>
@@ -3225,7 +3236,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
         <v>192.443</v>
@@ -3244,7 +3255,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>167.932</v>
@@ -3263,7 +3274,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
         <v>167.805</v>
@@ -3282,7 +3293,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
         <v>167.805</v>
@@ -3301,7 +3312,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>143.294</v>
@@ -3320,7 +3331,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
         <v>143.294</v>
@@ -3339,26 +3350,26 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>170.157</v>
+        <v>160.528</v>
       </c>
       <c r="C89">
-        <v>-61.858</v>
+        <v>-124.7902</v>
       </c>
       <c r="D89" t="s">
         <v>6</v>
       </c>
       <c r="E89">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="3"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
         <v>138.28</v>
@@ -3377,7 +3388,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
         <v>138.407</v>
@@ -3396,7 +3407,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
         <v>138.534</v>
@@ -3415,7 +3426,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
         <v>138.28</v>
@@ -3434,26 +3445,26 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>161.013</v>
+        <v>169.418</v>
       </c>
       <c r="C94">
-        <v>-61.731</v>
+        <v>-124.9172</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
       </c>
       <c r="E94">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>138.534</v>
@@ -3472,7 +3483,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>138.407</v>
@@ -3491,7 +3502,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>138.534</v>
@@ -3510,7 +3521,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
         <v>191.62</v>
@@ -3529,7 +3540,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>191.747</v>
@@ -3548,7 +3559,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>191.239</v>
@@ -3567,7 +3578,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
         <v>191.3005</v>
@@ -3586,7 +3597,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>191.112</v>
@@ -3605,7 +3616,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>191.239</v>
@@ -3624,7 +3635,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>191.0465</v>
@@ -3643,13 +3654,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B105">
-        <v>184</v>
+        <v>186.6396</v>
       </c>
       <c r="C105">
-        <v>-151.6</v>
+        <v>-151.5396</v>
       </c>
       <c r="D105" t="s">
         <v>6</v>
@@ -3662,13 +3673,13 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B106">
-        <v>182.4</v>
+        <v>185.0396</v>
       </c>
       <c r="C106">
-        <v>-151.6</v>
+        <v>-151.5396</v>
       </c>
       <c r="D106" t="s">
         <v>6</v>
@@ -3681,7 +3692,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B107">
         <v>159.975</v>
@@ -3700,7 +3711,7 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B108">
         <v>160</v>
@@ -3719,7 +3730,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B109">
         <v>160.948</v>
@@ -3738,7 +3749,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B110">
         <v>136.31</v>
@@ -3757,7 +3768,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B111">
         <v>136.31</v>
@@ -3776,7 +3787,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B112">
         <v>160.948</v>
@@ -3795,7 +3806,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B113">
         <v>185.586</v>
@@ -3814,7 +3825,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B114">
         <v>160.948</v>
@@ -3833,7 +3844,7 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B115">
         <v>185.586</v>
@@ -3852,7 +3863,7 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B116">
         <v>185.586</v>
@@ -3871,7 +3882,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B117">
         <v>210.224</v>
@@ -3890,7 +3901,7 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B118">
         <v>210.224</v>
@@ -3909,7 +3920,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B119">
         <v>210.224</v>
@@ -3928,7 +3939,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B120">
         <v>234.862</v>
@@ -3947,7 +3958,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B121">
         <v>259.5</v>
@@ -3966,7 +3977,7 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B122">
         <v>234.862</v>
@@ -3985,7 +3996,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B123">
         <v>234.862</v>
@@ -4004,7 +4015,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B124">
         <v>259.5</v>
@@ -4023,7 +4034,7 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B125">
         <v>284.138</v>
@@ -4042,7 +4053,7 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B126">
         <v>284.138</v>
@@ -4061,7 +4072,7 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B127">
         <v>259.5</v>
@@ -4080,7 +4091,7 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B128">
         <v>164.903</v>
@@ -4092,14 +4103,14 @@
         <v>6</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B129">
         <v>150.4</v>
@@ -4111,14 +4122,14 @@
         <v>6</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B130">
         <v>172</v>
@@ -4130,7 +4141,7 @@
         <v>6</v>
       </c>
       <c r="E130">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Boards/Single_board/CPL/JLC_Top.xlsx
+++ b/Boards/Single_board/CPL/JLC_Top.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12360"/>
+    <workbookView windowWidth="30720" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Main_board-bottom-pos" sheetId="1" r:id="rId1"/>
@@ -1641,8 +1641,8 @@
   <sheetPr/>
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1698,10 +1698,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="5">
-        <v>173.47</v>
+        <v>165.1</v>
       </c>
       <c r="C3" s="5">
-        <v>-68.83</v>
+        <v>-61.976</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1718,10 +1718,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="5">
-        <v>141.6</v>
+        <v>142.748</v>
       </c>
       <c r="C4" s="5">
-        <v>-146.4</v>
+        <v>-149.606</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -1738,10 +1738,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>141.6</v>
+        <v>143.002</v>
       </c>
       <c r="C5" s="5">
-        <v>-152.2</v>
+        <v>-155.194</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
